--- a/Windows.xlsx
+++ b/Windows.xlsx
@@ -336,10 +336,10 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.43"/>

--- a/Windows.xlsx
+++ b/Windows.xlsx
@@ -336,10 +336,10 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.43"/>

--- a/Windows.xlsx
+++ b/Windows.xlsx
@@ -336,10 +336,10 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.43"/>
